--- a/vacation-rental-testing/src/vacation_rental_test_report.xlsx
+++ b/vacation-rental-testing/src/vacation_rental_test_report.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7a32420cb200&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x700fcdecafc0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7a32420ca930&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x700fcdec9cd0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7a32420cb200&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x700fcdecafc0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1556,7 +1556,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
+          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+          <t>https://www.alojamiento.io/all/france/provence</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1666,7 +1666,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
+          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1710,7 +1710,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
+          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,7 +1754,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/portugal/algarve</t>
+          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/france/provence</t>
+          <t>https://www.alojamiento.io/all/portugal/algarve</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1798,7 +1798,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1820,7 +1820,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6975002&amp;guests=2&amp;search_string=Ikitelli,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=0-BC-6975002&amp;published=true&amp;dest_id=6975002&amp;owner_id=6975002&amp;property_country=TR&amp;at=api&amp;eplId=3000013128&amp;upat=2023-08-16T16%3A03%3A47.595767%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/mall-of-i-stanbul-3/BC-6975002</t>
+          <t>https://www.alojamiento.io/property/holiday-home-derb-koudiya/BC-2033030</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1886,7 +1886,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/ikitelli</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/mechouar-kasbah</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6975002&amp;guests=2&amp;search_string=Ikitelli,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=0-BC-6975002&amp;published=true&amp;dest_id=6975002&amp;owner_id=6975002&amp;property_country=TR&amp;at=api&amp;eplId=3000013128&amp;upat=2023-08-16T16%3A03%3A47.595767%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1930,7 +1930,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6975002&amp;guests=2&amp;search_string=Ikitelli,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=0-BC-6975002&amp;published=true&amp;dest_id=6975002&amp;owner_id=6975002&amp;property_country=TR&amp;at=api&amp;eplId=3000013128&amp;upat=2023-08-16T16%3A03%3A47.595767%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2033030&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=0-BC-2033030&amp;published=true&amp;dest_id=2033030&amp;owner_id=2033030&amp;property_country=MA&amp;at=api&amp;eplId=3000665143&amp;upat=2023-10-30T06%3A17%3A21.129779%2B00%3A00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3213609771&amp;guests=2&amp;search_string=Harbiye,%20Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=1-HA-3213609771&amp;published=true&amp;dest_id=98479615&amp;owner_id=98479615&amp;property_country=TR&amp;at=api&amp;eplId=504694&amp;epc=c001&amp;upat=2024-11-17T19%3A23%3A12.982903%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1974,7 +1974,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/3-bedroom-luxury-apartment-with-pool-and-sauna/HA-3213609771</t>
+          <t>https://www.alojamiento.io/property/riad-des-oiseaux-medina-luxury/HA-3214245941</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2018,7 +2018,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/harbiye</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/medina</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3213609771&amp;guests=2&amp;search_string=Harbiye,%20Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=1-HA-3213609771&amp;published=true&amp;dest_id=98479615&amp;owner_id=98479615&amp;property_country=TR&amp;at=api&amp;eplId=504694&amp;epc=c001&amp;upat=2024-11-17T19%3A23%3A12.982903%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2062,7 +2062,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3213609771&amp;guests=2&amp;search_string=Harbiye,%20Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=1-HA-3213609771&amp;published=true&amp;dest_id=98479615&amp;owner_id=98479615&amp;property_country=TR&amp;at=api&amp;eplId=504694&amp;epc=c001&amp;upat=2024-11-17T19%3A23%3A12.982903%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-3214245941&amp;guests=2&amp;search_string=Medina,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=1-HA-3214245941&amp;published=true&amp;dest_id=109851787&amp;owner_id=109851787&amp;property_country=MA&amp;at=api&amp;eplId=6084765&amp;epc=c001&amp;upat=2024-11-22T23%3A38%3A26.141234%2B00%3A00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5482756&amp;guests=2&amp;search_string=Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=2-BC-5482756&amp;published=true&amp;dest_id=5482756&amp;owner_id=5482756&amp;property_country=TR&amp;at=api&amp;eplId=6272217&amp;upat=2023-08-27T05%3A48%3A57.403050%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/vip-huge-house-sea-view-4-bedroom-50-mt-to-taksim-square/BC-5482756</t>
+          <t>https://www.alojamiento.io/property/villa-dar-cocoon/BC-1495950</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2150,7 +2150,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/cihangir</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech/agdal</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5482756&amp;guests=2&amp;search_string=Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=2-BC-5482756&amp;published=true&amp;dest_id=5482756&amp;owner_id=5482756&amp;property_country=TR&amp;at=api&amp;eplId=6272217&amp;upat=2023-08-27T05%3A48%3A57.403050%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2194,7 +2194,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5482756&amp;guests=2&amp;search_string=Istanbul,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=2-BC-5482756&amp;published=true&amp;dest_id=5482756&amp;owner_id=5482756&amp;property_country=TR&amp;at=api&amp;eplId=6272217&amp;upat=2023-08-27T05%3A48%3A57.403050%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-1495950&amp;guests=2&amp;search_string=Agdal,%20Marrakech,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=2-BC-1495950&amp;published=true&amp;dest_id=1495950&amp;owner_id=1495950&amp;property_country=MA&amp;at=api&amp;eplId=6130066&amp;upat=2023-08-16T15%3A58%3A56.220465%2B00%3A00</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6989859&amp;guests=2&amp;search_string=Besiktas,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=3-BC-6989859&amp;published=true&amp;dest_id=6989859&amp;owner_id=6989859&amp;property_country=TR&amp;at=api&amp;eplId=6063103&amp;upat=2023-08-16T16%3A02%3A09.930678%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2238,7 +2238,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/apartment-in-besiktas/BC-6989859</t>
+          <t>https://www.alojamiento.io/property/dar-aicha/BC-2080064</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2282,7 +2282,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/besiktas</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/aghouatim</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2304,7 +2304,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6989859&amp;guests=2&amp;search_string=Besiktas,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=3-BC-6989859&amp;published=true&amp;dest_id=6989859&amp;owner_id=6989859&amp;property_country=TR&amp;at=api&amp;eplId=6063103&amp;upat=2023-08-16T16%3A02%3A09.930678%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-6989859&amp;guests=2&amp;search_string=Besiktas,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=3-BC-6989859&amp;published=true&amp;dest_id=6989859&amp;owner_id=6989859&amp;property_country=TR&amp;at=api&amp;eplId=6063103&amp;upat=2023-08-16T16%3A02%3A09.930678%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-2080064&amp;guests=2&amp;search_string=Tahannout,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=3-BC-2080064&amp;published=true&amp;dest_id=2080064&amp;owner_id=2080064&amp;property_country=MA&amp;at=api&amp;eplId=553248635519419336&amp;upat=2023-12-04T11%3A52%3A20.814615%2B00%3A00</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5812126&amp;guests=2&amp;search_string=Taksim,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=4-BC-5812126&amp;published=true&amp;dest_id=5812126&amp;owner_id=5812126&amp;property_country=TR&amp;at=api&amp;eplId=6054812&amp;upat=2023-08-16T16%3A03%3A14.742784%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2370,7 +2370,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/large-suit-with-bosphorus-view-g-1/BC-5812126</t>
+          <t>https://www.alojamiento.io/property/dar-gonzo-resort-spa/BC-5850177</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2414,7 +2414,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/taksim</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/tameslouht</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5812126&amp;guests=2&amp;search_string=Taksim,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=4-BC-5812126&amp;published=true&amp;dest_id=5812126&amp;owner_id=5812126&amp;property_country=TR&amp;at=api&amp;eplId=6054812&amp;upat=2023-08-16T16%3A03%3A14.742784%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5812126&amp;guests=2&amp;search_string=Taksim,%20Istanbul,%20Istanbul%20(and%20vicinity),%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=4-BC-5812126&amp;published=true&amp;dest_id=5812126&amp;owner_id=5812126&amp;property_country=TR&amp;at=api&amp;eplId=6054812&amp;upat=2023-08-16T16%3A03%3A14.742784%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-5850177&amp;guests=2&amp;search_string=Marrakech,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=4-BC-5850177&amp;published=true&amp;dest_id=5850177&amp;owner_id=5850177&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A57%3A56.015905%2B00%3A00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2480,7 +2480,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-505509&amp;guests=2&amp;search_string=Agva,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=5-BC-505509&amp;published=true&amp;dest_id=505509&amp;owner_id=505509&amp;property_country=TR&amp;at=api&amp;eplId=6223664&amp;upat=2023-08-16T16%3A03%3A50.429893%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/property/agva-robin-s-nest/BC-505509</t>
+          <t>https://www.alojamiento.io/property/palais-medali/BC-4497553</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/all/turkey/istanbul/agva</t>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/tameslouht</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-505509&amp;guests=2&amp;search_string=Agva,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=5-BC-505509&amp;published=true&amp;dest_id=505509&amp;owner_id=505509&amp;property_country=TR&amp;at=api&amp;eplId=6223664&amp;upat=2023-08-16T16%3A03%3A50.429893%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2590,7 +2590,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-505509&amp;guests=2&amp;search_string=Agva,%20Turkey&amp;referrer_page=home&amp;menu_id=1733717911613&amp;referral_id=5-BC-505509&amp;published=true&amp;dest_id=505509&amp;owner_id=505509&amp;property_country=TR&amp;at=api&amp;eplId=6223664&amp;upat=2023-08-16T16%3A03%3A50.429893%2B00%3A00</t>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4497553&amp;guests=2&amp;search_string=Tameslouht,%20Marrakech-Safi,%20Morocco&amp;referrer_page=home&amp;menu_id=1733747012768&amp;referral_id=5-BC-4497553&amp;published=true&amp;dest_id=4497553&amp;owner_id=4497553&amp;property_country=MA&amp;at=api&amp;eplId=6153358&amp;upat=2023-08-16T15%3A58%3A56.217764%2B00%3A00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7a32420ca930&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x700fcdec9cd0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
         </is>
       </c>
     </row>

--- a/vacation-rental-testing/src/vacation_rental_test_report.xlsx
+++ b/vacation-rental-testing/src/vacation_rental_test_report.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Test Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="URL Links" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Currency" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,12 +492,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>All tags are in sequence</t>
+          <t>HTML tags are not in proper sequence</t>
         </is>
       </c>
     </row>
@@ -522,7 +524,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>URL Status</t>
@@ -535,7 +541,4005 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Exception occurred: No links found on the page!</t>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>URL Status</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7716f87d10a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Read timed out. (read timeout=10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://x.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/staystravel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/place-to-stay</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/near-me?all=true</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/addalisting</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/about-us</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/faq</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/alicante</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/cordoba</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/costa-adeje</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/costa-del-sol</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/granada</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid/ibiza</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/malaga</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/mallorca-island</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/marbella</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/san-bartolome-de-tirajana/maspalomas</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/salou</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/san-sebastian</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/castilla-la-mancha/toledo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/torremolinos</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/valencia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/aragon/zaragoza</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/valencia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/alicante</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/menorca</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/hotels</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/portugal/lisbon-district/lisbon</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/france/provence</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/benidorm</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/italy/veneto/venice</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands/palma-de-mallorca</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/portugal/porto-district/porto</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/andorra/andorra-la-vella/andorra-la-vella</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/morocco/marrakech-safi/marrakech</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/portugal/algarve</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/turkey/istanbul</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/seville</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/barcelona</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4505653&amp;guests=2&amp;search_string=Sestao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=0-BC-4505653&amp;published=true&amp;dest_id=4505653&amp;owner_id=4505653&amp;property_country=ES&amp;at=api&amp;eplId=6144209&amp;upat=2023-08-28T03%3A18%3A23.783611%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/consultar-disponibilidad/BC-4505653</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/sestao</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4505653&amp;guests=2&amp;search_string=Sestao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=0-BC-4505653&amp;published=true&amp;dest_id=4505653&amp;owner_id=4505653&amp;property_country=ES&amp;at=api&amp;eplId=6144209&amp;upat=2023-08-28T03%3A18%3A23.783611%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-4505653&amp;guests=2&amp;search_string=Sestao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=0-BC-4505653&amp;published=true&amp;dest_id=4505653&amp;owner_id=4505653&amp;property_country=ES&amp;at=api&amp;eplId=6144209&amp;upat=2023-08-28T03%3A18%3A23.783611%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61511675151&amp;guests=2&amp;search_string=Art%20District,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=1-HA-61511675151&amp;published=true&amp;dest_id=109571943&amp;owner_id=109571943&amp;property_country=ES&amp;at=api&amp;eplId=553248633937781377&amp;epc=c001&amp;upat=2024-11-18T07%3A04%3A44.611732%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/exterior-double-room-poza/HA-61511675151</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao/art-district</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61511675151&amp;guests=2&amp;search_string=Art%20District,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=1-HA-61511675151&amp;published=true&amp;dest_id=109571943&amp;owner_id=109571943&amp;property_country=ES&amp;at=api&amp;eplId=553248633937781377&amp;epc=c001&amp;upat=2024-11-18T07%3A04%3A44.611732%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=12&amp;property_id=HA-61511675151&amp;guests=2&amp;search_string=Art%20District,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=1-HA-61511675151&amp;published=true&amp;dest_id=109571943&amp;owner_id=109571943&amp;property_country=ES&amp;at=api&amp;eplId=553248633937781377&amp;epc=c001&amp;upat=2024-11-18T07%3A04%3A44.611732%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-830209&amp;guests=2&amp;search_string=Menaka,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=2-BC-830209&amp;published=true&amp;dest_id=830209&amp;owner_id=830209&amp;property_country=ES&amp;at=api&amp;eplId=6346191&amp;upat=2024-07-14T22%3A55%3A50.835391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/urresillo-landetxea/BC-830209</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/menaka</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-830209&amp;guests=2&amp;search_string=Menaka,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=2-BC-830209&amp;published=true&amp;dest_id=830209&amp;owner_id=830209&amp;property_country=ES&amp;at=api&amp;eplId=6346191&amp;upat=2024-07-14T22%3A55%3A50.835391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-830209&amp;guests=2&amp;search_string=Menaka,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=2-BC-830209&amp;published=true&amp;dest_id=830209&amp;owner_id=830209&amp;property_country=ES&amp;at=api&amp;eplId=6346191&amp;upat=2024-07-14T22%3A55%3A50.835391%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-8959550&amp;guests=2&amp;search_string=Mungia,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=3-BC-8959550&amp;published=true&amp;dest_id=8959550&amp;owner_id=8959550&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-12-07T04%3A23%3A14.398121%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/villa-elordui/BC-8959550</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/mungia</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-8959550&amp;guests=2&amp;search_string=Mungia,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=3-BC-8959550&amp;published=true&amp;dest_id=8959550&amp;owner_id=8959550&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-12-07T04%3A23%3A14.398121%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-8959550&amp;guests=2&amp;search_string=Mungia,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=3-BC-8959550&amp;published=true&amp;dest_id=8959550&amp;owner_id=8959550&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-12-07T04%3A23%3A14.398121%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7889011&amp;guests=2&amp;search_string=Mungia,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=4-BC-7889011&amp;published=true&amp;dest_id=7889011&amp;owner_id=7889011&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-08-16T16%3A33%3A50.715276%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/apartamento-privado-con-jard%C3%ADn-y-preciosas-vistas/BC-7889011</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/mungia</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7889011&amp;guests=2&amp;search_string=Mungia,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=4-BC-7889011&amp;published=true&amp;dest_id=7889011&amp;owner_id=7889011&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-08-16T16%3A33%3A50.715276%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-7889011&amp;guests=2&amp;search_string=Mungia,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=4-BC-7889011&amp;published=true&amp;dest_id=7889011&amp;owner_id=7889011&amp;property_country=ES&amp;at=api&amp;eplId=6047348&amp;upat=2023-08-16T16%3A33%3A50.715276%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12317998&amp;guests=2&amp;search_string=Santutxu,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=5-BC-12317998&amp;published=true&amp;dest_id=12317998&amp;owner_id=12317998&amp;property_country=ES&amp;at=api&amp;eplId=553248635976008235&amp;upat=2024-12-08T06%3A15%3A57.902106%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/property/nuevo-luminoso-reformado-cerca-del-casco-viejo/BC-12317998</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/basque-country/bilbao/santutxu</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12317998&amp;guests=2&amp;search_string=Santutxu,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=5-BC-12317998&amp;published=true&amp;dest_id=12317998&amp;owner_id=12317998&amp;property_country=ES&amp;at=api&amp;eplId=553248635976008235&amp;upat=2024-12-08T06%3A15%3A57.902106%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/redirect-partner?feed=11&amp;property_id=BC-12317998&amp;guests=2&amp;search_string=Santutxu,%20Bilbao,%20Basque%20Country,%20Spain&amp;referrer_page=home&amp;menu_id=1733828164556&amp;referral_id=5-BC-12317998&amp;published=true&amp;dest_id=12317998&amp;owner_id=12317998&amp;property_country=ES&amp;at=api&amp;eplId=553248635976008235&amp;upat=2024-12-08T06%3A15%3A57.902106%2B00%3A00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/place-to-stay</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/france/paris</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/portugal</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/italy</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/switzerland</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/greece</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/resorts</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/addalisting</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/about-us</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/faq</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/cantabria</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/galicia</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia/malaga</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/navarre</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/gran-canaria</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands/tenerife</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/usa/wyoming/basin</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/castile-and-leon</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/murcia</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/valencian-community/valencia-province</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/andalusia</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/canary-islands</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/balearic-islands</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/switzerland</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/community-of-madrid/madrid</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/spain/catalonia/costa-brava</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/italy</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/france</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/morocco</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/andorra</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/greece</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/cancun</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/dominican-republic/la-altagracia/punta-cana</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/playa-del-carmen</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/puerto-rico/san-juan</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/cuba/province-of-havana</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/jalisco/puerto-vallarta</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/baja-california-sur/cabo-san-lucas</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/southeast-region/rio-de-janeiro</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/buenos-aires</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/quintana-roo/tulum</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/medellin</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/bolivar/cartagena</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/peru/lima</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/chile/santiago-metropolitan/santiago</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/costa-rica/san-jose</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/uruguay/montevideo</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/panama/panama/panama-city</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/south-region/florianopolis</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/ecuador/pichincha/quito</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/guatemala/sacatepequez/antigua-guatemala</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/brazil/northeast-region/salvador</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/peru/cusco/cusco</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/honduras/bay-islands/roatan</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/bolivia/la-paz</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/ecuador/galapagos</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/mexico/guanajuato/san-miguel-de-allende</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/mendoza</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/colombia/magdalena/santa-marta</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/belize/belize-district/belize-city</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/all/argentina/rio-negro/san-carlos-de-bariloche</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Error: HTTPSConnectionPool(host='www.facebook.com', port=443): Max retries exceeded with url: /StaysTravel (Caused by NameResolutionError("&lt;urllib3.connection.HTTPSConnection object at 0x7716f87d10a0&gt;: Failed to resolve 'www.facebook.com' ([Errno -3] Temporary failure in name resolution)"))</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://x.com/StaysTravel</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/staystravel</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/privacy-policy</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-terms</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-map</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.travelai.com/</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/privacy-policy#site-cookie-policy</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.petfriendly.io/</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.onedegreeleft.com/</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.alojamiento.io/site-terms</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>URL Validity</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Valid URL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Updated Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Final Test Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>$ (USD)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD $156</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>$ (CAD)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CAD $220</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>€ (EUR)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EUR €147</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>£ (GBP)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GBP £122</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>$ (AUD)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AUD $242</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>$ (SGD)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SGD $209</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>د.إ. (AED)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AED د.إ.573</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>৳ (BDT)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated successfully)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BDT ৳18,689</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PASS (Currency updated correctly)</t>
         </is>
       </c>
     </row>
